--- a/biology/Botanique/Sorbus_intermedia/Sorbus_intermedia.xlsx
+++ b/biology/Botanique/Sorbus_intermedia/Sorbus_intermedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alisier de Suède, Sorbier de Scandinavie
 Sorbus intermedia, aussi appelé Alisier de Suède, Sorbier intermédiaire ou Sorbier de Scandinavie, est une espèce de plantes à fleurs appartenant au genre des sorbiers (Groupe Aria), de la famille des Rosaceae et de la sous-famille des Maloideae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre originaire du Nord de l'Europe (Sud de la Suède, Estonie, Lettonie) pouvant mesurer jusqu'à 15 m de haut. D'abord conique, son port s'arrondit avec le temps.
 Il a des feuilles caduques vert foncé sur le dessus et blanches dessous à 5 ou 7 lobes dentés.
@@ -546,9 +560,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est planté comme arbre d'ornement dans les parcs et les jardins dans une grande partie de l'Europe, et souvent utilisé comme arbre d'alignement dans les rues. Il ne faut pas le confondre avec son cousin l'alisier blanc qui est également fréquemment utilisé (les feuilles de l'alisier blanc sont peu ou pas lobées), ni avec l'alisier de Fontainebleau qui est lui aussi de plus en plus planté (les feuilles de l'alisier de Fontainebleau sont moins blanches en dessous, avec des lobes plus pointus à la base, moins arrondis, et des nervures plus serrées, ses fruits sont brun-rouge terne[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est planté comme arbre d'ornement dans les parcs et les jardins dans une grande partie de l'Europe, et souvent utilisé comme arbre d'alignement dans les rues. Il ne faut pas le confondre avec son cousin l'alisier blanc qui est également fréquemment utilisé (les feuilles de l'alisier blanc sont peu ou pas lobées), ni avec l'alisier de Fontainebleau qui est lui aussi de plus en plus planté (les feuilles de l'alisier de Fontainebleau sont moins blanches en dessous, avec des lobes plus pointus à la base, moins arrondis, et des nervures plus serrées, ses fruits sont brun-rouge terne).
 </t>
         </is>
       </c>
